--- a/ARI_RI_SC_Plots.xlsx
+++ b/ARI_RI_SC_Plots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miz_r\Documents\Ariana\StanfordIntern\6-18-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6305B4-24A1-4C25-A567-2481D0F6F0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653A5FFD-115F-493B-AEFC-94E017842BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{8715C5E6-40AC-41C1-9D87-E122CEBE3426}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8715C5E6-40AC-41C1-9D87-E122CEBE3426}"/>
   </bookViews>
   <sheets>
     <sheet name="Genomap" sheetId="1" r:id="rId1"/>
@@ -98,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,7 +178,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -241,16 +242,16 @@
             <c:numRef>
               <c:f>Genomap!$B$2:$D$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.41</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -300,7 +301,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -364,7 +365,7 @@
             <c:numRef>
               <c:f>Genomap!$B$3:$D$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.18</c:v>
@@ -423,7 +424,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -487,16 +488,16 @@
             <c:numRef>
               <c:f>Genomap!$B$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -546,7 +547,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -610,7 +611,7 @@
             <c:numRef>
               <c:f>Genomap!$B$5:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.37</c:v>
@@ -673,7 +674,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -709,7 +710,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -722,7 +723,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Score Value</a:t>
                 </a:r>
               </a:p>
@@ -741,7 +742,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -757,7 +758,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -773,7 +774,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -815,7 +816,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -928,7 +929,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -992,16 +993,16 @@
             <c:numRef>
               <c:f>iNMF!$B$2:$D$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,7 +1052,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1115,16 +1116,16 @@
             <c:numRef>
               <c:f>iNMF!$B$3:$D$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,7 +1175,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1238,16 +1239,16 @@
             <c:numRef>
               <c:f>iNMF!$B$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1297,7 +1298,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1361,16 +1362,16 @@
             <c:numRef>
               <c:f>iNMF!$B$5:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,7 +1425,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1460,7 +1461,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1473,7 +1474,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Score Value</a:t>
                 </a:r>
               </a:p>
@@ -1492,7 +1493,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1508,7 +1509,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1524,7 +1525,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1566,7 +1567,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1679,7 +1680,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1743,7 +1744,7 @@
             <c:numRef>
               <c:f>BBKNN!$B$2:$D$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.35</c:v>
@@ -1752,7 +1753,7 @@
                   <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1802,7 +1803,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1866,13 +1867,13 @@
             <c:numRef>
               <c:f>BBKNN!$B$3:$D$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.37</c:v>
@@ -1925,7 +1926,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1989,16 +1990,16 @@
             <c:numRef>
               <c:f>BBKNN!$B$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.27</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2048,7 +2049,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2112,16 +2113,16 @@
             <c:numRef>
               <c:f>BBKNN!$B$5:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>-7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2175,7 +2176,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2211,7 +2212,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2224,7 +2225,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Score Value</a:t>
                 </a:r>
               </a:p>
@@ -2243,7 +2244,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2259,7 +2260,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2275,7 +2276,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2317,7 +2318,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2430,7 +2431,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2494,16 +2495,16 @@
             <c:numRef>
               <c:f>Scanorama!$B$2:$D$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.46</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2553,7 +2554,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2617,16 +2618,16 @@
             <c:numRef>
               <c:f>Scanorama!$B$3:$D$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.46</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2676,7 +2677,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2740,16 +2741,16 @@
             <c:numRef>
               <c:f>Scanorama!$B$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.78</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2799,7 +2800,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2863,7 +2864,7 @@
             <c:numRef>
               <c:f>Scanorama!$B$5:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.32</c:v>
@@ -2872,7 +2873,7 @@
                   <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2926,7 +2927,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2962,7 +2963,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2975,7 +2976,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Score Value</a:t>
                 </a:r>
               </a:p>
@@ -2994,7 +2995,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3010,7 +3011,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3026,7 +3027,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3068,7 +3069,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5780,8 +5781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990E8227-C3A4-4A02-B83A-0FC935C04FC4}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5806,27 +5807,27 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.41</v>
-      </c>
-      <c r="C2">
-        <v>0.85</v>
-      </c>
-      <c r="D2">
-        <v>0.48</v>
+      <c r="B2" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.18</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.13</v>
       </c>
     </row>
@@ -5834,27 +5835,27 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>0.68</v>
-      </c>
-      <c r="C4">
-        <v>0.91</v>
-      </c>
-      <c r="D4">
-        <v>0.37</v>
+      <c r="B4" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.37</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.84</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.15</v>
       </c>
     </row>
@@ -5873,8 +5874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06E2C8D-0C38-4014-ABFC-6274CB67FBE0}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5899,56 +5900,56 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0.26</v>
-      </c>
-      <c r="D2">
-        <v>0.39</v>
+      <c r="B2" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0.12</v>
-      </c>
-      <c r="D3">
-        <v>0.34</v>
+      <c r="B3" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.09</v>
-      </c>
-      <c r="D4">
-        <v>0.32</v>
+      <c r="B4" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.06</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1">
         <v>0.24</v>
       </c>
-      <c r="D5">
-        <v>0.46</v>
+      <c r="C5" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -5961,8 +5962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2C9629-0301-4D9D-9521-3F86742DC71C}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5987,27 +5988,27 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.35</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.86</v>
       </c>
-      <c r="D2">
-        <v>0.45</v>
+      <c r="D2" s="1">
+        <v>0.38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.1</v>
       </c>
-      <c r="C3">
-        <v>0.82</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.37</v>
       </c>
     </row>
@@ -6015,28 +6016,28 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>0.27</v>
-      </c>
-      <c r="C4">
-        <v>0.83</v>
-      </c>
-      <c r="D4">
-        <v>0.39</v>
+      <c r="B4" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>0.45</v>
-      </c>
-      <c r="C5">
-        <v>0.86</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
+      <c r="B5" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6049,8 +6050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384968D3-1BE5-426C-9513-52F990E6BDAA}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6075,56 +6076,56 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.46</v>
-      </c>
-      <c r="C2">
-        <v>0.86</v>
-      </c>
-      <c r="D2">
-        <v>0.6</v>
+      <c r="B2" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>0.46</v>
-      </c>
-      <c r="C3">
-        <v>0.86</v>
-      </c>
-      <c r="D3">
-        <v>0.44</v>
+      <c r="B3" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>0.78</v>
-      </c>
-      <c r="C4">
-        <v>0.93</v>
-      </c>
-      <c r="D4">
-        <v>0.54</v>
+      <c r="B4" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.32</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.81</v>
       </c>
-      <c r="D5">
-        <v>0.51</v>
+      <c r="D5" s="1">
+        <v>0.15</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.25">
